--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_4.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9971035872845894</v>
+        <v>0.9997217548000695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9964641698996419</v>
+        <v>0.9987368562056016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9966158810933083</v>
+        <v>0.9995035318535128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9977548250080893</v>
+        <v>0.9995823754254701</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9971628253351886</v>
+        <v>0.9995457817075166</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002703674132011558</v>
+        <v>0.0002597296805823933</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003300542193680575</v>
+        <v>0.001179089286466394</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005654484382627438</v>
+        <v>0.0003779498742054055</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001848606454020407</v>
+        <v>6.449777595921446e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003751545418323923</v>
+        <v>0.00022122382508231</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006028539799974371</v>
+        <v>0.001829119614686587</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05199686655954913</v>
+        <v>0.01611613106742413</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004089053245286</v>
+        <v>1.000392816752843</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05421048081734146</v>
+        <v>0.01680222813195481</v>
       </c>
       <c r="P2" t="n">
-        <v>93.82628728274614</v>
+        <v>98.51173831573819</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.8001961023424</v>
+        <v>148.4856471353344</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.997038582469911</v>
+        <v>0.9997161379101012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9964020371157153</v>
+        <v>0.9987309837736021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9965288213472158</v>
+        <v>0.9994949062487348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9977027149597172</v>
+        <v>0.9995677996458133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9970915852945148</v>
+        <v>0.9995367295761417</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002764353273132246</v>
+        <v>0.000264972800814848</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003358540420162078</v>
+        <v>0.001184570943967945</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005799951485944361</v>
+        <v>0.0003845163503506402</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001891512228442133</v>
+        <v>6.674885366887384e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003845744852537757</v>
+        <v>0.000225632602009757</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00609859898849972</v>
+        <v>0.001848198849769998</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05257711739085974</v>
+        <v>0.01627798515833111</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004180824748361</v>
+        <v>1.000400746479857</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05481543412782577</v>
+        <v>0.01697097268659586</v>
       </c>
       <c r="P3" t="n">
-        <v>93.78189713793502</v>
+        <v>98.47176675136055</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.7558059575312</v>
+        <v>148.4456755709568</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9969720707549675</v>
+        <v>0.9997104077158079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9963383603243255</v>
+        <v>0.9987249861366782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9964394913065366</v>
+        <v>0.9994861716868066</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9976490119850162</v>
+        <v>0.9995528434283101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9970184345449575</v>
+        <v>0.9995275319737563</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002826439039505054</v>
+        <v>0.0002703216856612217</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003417979909836328</v>
+        <v>0.001190169474770676</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005949211997719021</v>
+        <v>0.0003911657730887797</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001935729568288674</v>
+        <v>6.90586860507635e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003942470783003848</v>
+        <v>0.0002301122295697716</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006169450820788308</v>
+        <v>0.001867445346376038</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05316426468507821</v>
+        <v>0.01644146239424041</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004274723640046</v>
+        <v>1.000408836165918</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542757749792158</v>
+        <v>0.01714140948688235</v>
       </c>
       <c r="P4" t="n">
-        <v>93.73747529913203</v>
+        <v>98.4317957595571</v>
       </c>
       <c r="Q4" t="n">
-        <v>143.7113841187283</v>
+        <v>148.4057045791533</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9969039932708145</v>
+        <v>0.9997045674348864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9962731276944944</v>
+        <v>0.9987188646879064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9963479300140126</v>
+        <v>0.9994773138426497</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9975936912034937</v>
+        <v>0.9995375023328474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9969433605242106</v>
+        <v>0.9995181770009128</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002889986382705791</v>
+        <v>0.0002757733315426269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003478871706402213</v>
+        <v>0.001195883578498584</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006102200681895384</v>
+        <v>0.0003979090477752807</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001981278959375072</v>
+        <v>7.142795883417497e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004041739820635228</v>
+        <v>0.0002346685033047279</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006241134834761766</v>
+        <v>0.001886870095114617</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05375859357075659</v>
+        <v>0.01660642440571199</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004370833029438</v>
+        <v>1.000417081268396</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05604720819469368</v>
+        <v>0.01731339427270071</v>
       </c>
       <c r="P5" t="n">
-        <v>93.69300697747082</v>
+        <v>98.39186258438932</v>
       </c>
       <c r="Q5" t="n">
-        <v>143.666915797067</v>
+        <v>148.3657714039855</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9968343628976903</v>
+        <v>0.9996986071163528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9962063195950522</v>
+        <v>0.9987126167096915</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9962540836449879</v>
+        <v>0.9994682867583513</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9975367847459196</v>
+        <v>0.9995217700812412</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9968663490564693</v>
+        <v>0.9995086277447378</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00295498327959699</v>
+        <v>0.0002813370272660414</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00354123413469485</v>
+        <v>0.001201715791907674</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006259007473455403</v>
+        <v>0.0004047811611206445</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002028133946236263</v>
+        <v>7.3857641619437e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004143570709845834</v>
+        <v>0.0002393194013700408</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006313583890455343</v>
+        <v>0.00190648310229819</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05435975790598216</v>
+        <v>0.01677310428233371</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004469134732672</v>
+        <v>1.000425495835737</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05667396534025154</v>
+        <v>0.01748717005674512</v>
       </c>
       <c r="P6" t="n">
-        <v>93.6485245729658</v>
+        <v>98.35191444406013</v>
       </c>
       <c r="Q6" t="n">
-        <v>143.622433392562</v>
+        <v>148.3258232636564</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9967630411866086</v>
+        <v>0.9996925373029647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9961378025942176</v>
+        <v>0.9987062431530949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9961577691809159</v>
+        <v>0.9994591670450096</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974781125362456</v>
+        <v>0.9995056886832224</v>
       </c>
       <c r="F7" t="n">
-        <v>0.996787228441433</v>
+        <v>0.9994989507396563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003021558966230502</v>
+        <v>0.0002870029316298551</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00360519174742528</v>
+        <v>0.001207665227223726</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006419938175931424</v>
+        <v>0.0004117237908435038</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002076442797824941</v>
+        <v>7.634124644008303e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004248190486878183</v>
+        <v>0.0002440325186417934</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006386931399786968</v>
+        <v>0.001926252842212914</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05496870897365611</v>
+        <v>0.01694116087019585</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004569824207141</v>
+        <v>1.00043406498405</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05730884071557886</v>
+        <v>0.01766238116147766</v>
       </c>
       <c r="P7" t="n">
-        <v>93.60396473360871</v>
+        <v>98.3120362550373</v>
       </c>
       <c r="Q7" t="n">
-        <v>143.5778735532049</v>
+        <v>148.2859450746335</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9966901002138833</v>
+        <v>0.9996863462313857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9960676651379188</v>
+        <v>0.9986997340738525</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9960590898935232</v>
+        <v>0.9994498985663929</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9974176898187167</v>
+        <v>0.9994891979501115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9967060686744285</v>
+        <v>0.9994890925707213</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003089646162530933</v>
+        <v>0.0002927820251922038</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003670661984201614</v>
+        <v>0.001213741166980985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006584820233812769</v>
+        <v>0.0004187796721765913</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002126192962509562</v>
+        <v>7.888806881229028e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004355506598161165</v>
+        <v>0.0002488338704944408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006461044135239402</v>
+        <v>0.001946200736599397</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05558458565583568</v>
+        <v>0.01711087447187325</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004672799698047</v>
+        <v>1.000442805320397</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05795093654315929</v>
+        <v>0.01783931982253405</v>
       </c>
       <c r="P8" t="n">
-        <v>93.5593974102742</v>
+        <v>98.27216433426483</v>
       </c>
       <c r="Q8" t="n">
-        <v>143.5333062298704</v>
+        <v>148.2460731538611</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9966154697536399</v>
+        <v>0.9996800339589468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9959958082926386</v>
+        <v>0.9986930921150455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9959579284657181</v>
+        <v>0.9994404805866822</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9973554532784576</v>
+        <v>0.9994723058651469</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9966227864280649</v>
+        <v>0.9994790539285967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003159310421269547</v>
+        <v>0.0002986742544372296</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003737737195119755</v>
+        <v>0.001219941143978932</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00675384967084513</v>
+        <v>0.0004259493652819522</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002177436571766441</v>
+        <v>8.149687580779314e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004465629226016268</v>
+        <v>0.0002537231205448727</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006535998024626438</v>
+        <v>0.001966330533567962</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05620774342801485</v>
+        <v>0.01728219472281312</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004778160347803</v>
+        <v>1.00045171676384</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05860062343181456</v>
+        <v>0.01801793353123823</v>
       </c>
       <c r="P9" t="n">
-        <v>93.51480299262849</v>
+        <v>98.23231405699674</v>
       </c>
       <c r="Q9" t="n">
-        <v>143.4887118122247</v>
+        <v>148.206222876593</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.996539092718529</v>
+        <v>0.9996736038716365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9959221684749426</v>
+        <v>0.9986863122075395</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9958541858911282</v>
+        <v>0.9994309634805116</v>
       </c>
       <c r="E10" t="n">
-        <v>0.997291339435499</v>
+        <v>0.9994549997863389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9965372678583617</v>
+        <v>0.999468872178195</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003230605030981156</v>
+        <v>0.0003046764586931023</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003806476732524476</v>
+        <v>0.001226269890032319</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006927191915608527</v>
+        <v>0.000433194521099997</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002230225893005366</v>
+        <v>8.416961985056344e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004578708904306947</v>
+        <v>0.0002586820704752802</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006611774957160596</v>
+        <v>0.001986633780612171</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05683841158038423</v>
+        <v>0.0174549837780819</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004885986750312</v>
+        <v>1.00046079453416</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05925814043309335</v>
+        <v>0.01819807857431246</v>
       </c>
       <c r="P10" t="n">
-        <v>93.47017168639161</v>
+        <v>98.19252027112837</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.4440805059878</v>
+        <v>148.1664290907246</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9964609423254903</v>
+        <v>0.9996670400375192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9958467328655645</v>
+        <v>0.998679392807289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9957478530874201</v>
+        <v>0.9994212798025719</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9972253562281903</v>
+        <v>0.9994372949838062</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9964495412241746</v>
+        <v>0.9994584947634368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003303554992476952</v>
+        <v>0.0003108035097227048</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003876892562638441</v>
+        <v>0.001232728846439525</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007104862143666904</v>
+        <v>0.0004405664842059208</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002284554390038898</v>
+        <v>8.690394262944395e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004694708266852901</v>
+        <v>0.000263736317354501</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006688393051392961</v>
+        <v>0.002007131231569887</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05747656037444266</v>
+        <v>0.01762962023762012</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004996316716955</v>
+        <v>1.000470061123502</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05992345654246496</v>
+        <v>0.01838014966948053</v>
       </c>
       <c r="P11" t="n">
-        <v>93.42551223980311</v>
+        <v>98.1526992939809</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.3994210593993</v>
+        <v>148.1266081135771</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9963809605145572</v>
+        <v>0.999660360510408</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9957694519002078</v>
+        <v>0.9986723373579915</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9956388725951982</v>
+        <v>0.9994114609728604</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9971572726785113</v>
+        <v>0.9994191794872698</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9963594877993902</v>
+        <v>0.9994479511419521</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003378214502187374</v>
+        <v>0.0003170385550836446</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003949030951556607</v>
+        <v>0.00123931479866037</v>
       </c>
       <c r="I12" t="n">
-        <v>0.007286956363246766</v>
+        <v>0.0004480413352725443</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002340612242902362</v>
+        <v>8.970169282964234e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004813784303074564</v>
+        <v>0.0002688715140510933</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006765872588610189</v>
+        <v>0.00202778502247386</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05812240963851528</v>
+        <v>0.01780557651646373</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005109232214743</v>
+        <v>1.00047949104413</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06059680094680145</v>
+        <v>0.01856359677139422</v>
       </c>
       <c r="P12" t="n">
-        <v>93.38081592570623</v>
+        <v>98.11297433322632</v>
       </c>
       <c r="Q12" t="n">
-        <v>143.3547247453025</v>
+        <v>148.0868831528225</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9962991355487397</v>
+        <v>0.9996535493797527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.995690285212176</v>
+        <v>0.9986651352999805</v>
       </c>
       <c r="D13" t="n">
-        <v>0.995527167277504</v>
+        <v>0.9994015193692132</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9970872246679284</v>
+        <v>0.9994006419242163</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9962671011531912</v>
+        <v>0.9994372423844643</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003454594516077018</v>
+        <v>0.000323396446576253</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004022929579818318</v>
+        <v>0.00124603760367986</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007473603461582829</v>
+        <v>0.0004556096513355602</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002398287571071099</v>
+        <v>9.256462681765761e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004935945516326964</v>
+        <v>0.0002740871390766089</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006844180590753194</v>
+        <v>0.002048624739521458</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05877579872768228</v>
+        <v>0.01798322681212282</v>
       </c>
       <c r="N13" t="n">
-        <v>1.005224749813544</v>
+        <v>1.000489106757996</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06127800616219616</v>
+        <v>0.01874881000792633</v>
       </c>
       <c r="P13" t="n">
-        <v>93.33610038026535</v>
+        <v>98.07326319717296</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.3100091998616</v>
+        <v>148.0471720167692</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9962154427865424</v>
+        <v>0.9996466063548751</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9956092188234116</v>
+        <v>0.9986577847238401</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9954127546851061</v>
+        <v>0.9993914201005535</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9970150757368208</v>
+        <v>0.9993816664192308</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9961723498886528</v>
+        <v>0.9994263409721488</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003532718035900584</v>
+        <v>0.0003298774555358508</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004098601495326717</v>
+        <v>0.001252899043853868</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007664774113302705</v>
+        <v>0.0004632979941758982</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002457692731103943</v>
+        <v>9.549519638638466e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005061233422203324</v>
+        <v>0.0002793965952811414</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006923294968958624</v>
+        <v>0.002069648700484484</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05943667248341367</v>
+        <v>0.01816252888602936</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005342904301352</v>
+        <v>1.00049890867547</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0619670146819063</v>
+        <v>0.01893574534232553</v>
       </c>
       <c r="P14" t="n">
-        <v>93.29137544495869</v>
+        <v>98.03357863866225</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.2652842645549</v>
+        <v>148.0074874582585</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9961298401772301</v>
+        <v>0.9996395334613948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9955261983814095</v>
+        <v>0.998650281901899</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9952955751867156</v>
+        <v>0.9993812030855013</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9969408092145554</v>
+        <v>0.999362295526812</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9960751799135392</v>
+        <v>0.9994152848495375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003612624314173344</v>
+        <v>0.0003364796911356701</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004176097433759316</v>
+        <v>0.001259902598800099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007860567955623912</v>
+        <v>0.000471075974658776</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002518841449075679</v>
+        <v>9.848682943566339e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.005189719545901227</v>
+        <v>0.0002847814020472197</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007003242082809459</v>
+        <v>0.002090848351761688</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06010511054954765</v>
+        <v>0.01834338276152112</v>
       </c>
       <c r="N15" t="n">
-        <v>1.005463755043911</v>
+        <v>1.000508893936854</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06266390954037315</v>
+        <v>0.01912429854171611</v>
       </c>
       <c r="P15" t="n">
-        <v>93.24664162781552</v>
+        <v>97.99394552787612</v>
       </c>
       <c r="Q15" t="n">
-        <v>143.2205504474117</v>
+        <v>147.9678543474724</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9960422313654463</v>
+        <v>0.9996323220178978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9954411560146725</v>
+        <v>0.9986426344077031</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9951754709015559</v>
+        <v>0.9993708206396803</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9968642919325904</v>
+        <v>0.9993424894171254</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9959754836915707</v>
+        <v>0.9994040304349193</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003694403294391061</v>
+        <v>0.000343211257094356</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004255480750179921</v>
+        <v>0.001267041198945786</v>
       </c>
       <c r="I16" t="n">
-        <v>0.008061248789674888</v>
+        <v>0.0004789798938120306</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002581843371773959</v>
+        <v>0.0001015456772695719</v>
       </c>
       <c r="K16" t="n">
-        <v>0.005321546080724424</v>
+        <v>0.0002902627855408013</v>
       </c>
       <c r="L16" t="n">
-        <v>0.007084076996917297</v>
+        <v>0.002112234104257198</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06078160325617498</v>
+        <v>0.0185259617049792</v>
       </c>
       <c r="N16" t="n">
-        <v>1.005587438072311</v>
+        <v>1.000519074798262</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06336920194205457</v>
+        <v>0.01931465024878772</v>
       </c>
       <c r="P16" t="n">
-        <v>93.20187245527768</v>
+        <v>97.95432878099382</v>
       </c>
       <c r="Q16" t="n">
-        <v>143.1757812748739</v>
+        <v>147.9282376005901</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9959526288090258</v>
+        <v>0.9996249775091453</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9953540701150222</v>
+        <v>0.9986348252751721</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9950524663240817</v>
+        <v>0.9993603340468813</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9967854956477528</v>
+        <v>0.9993222642728922</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9958732342283749</v>
+        <v>0.999392628189145</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003778043347712028</v>
+        <v>0.0003500670336280986</v>
       </c>
       <c r="H17" t="n">
-        <v>0.004336771614874224</v>
+        <v>0.001274330681382164</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008266775687959681</v>
+        <v>0.0004869630976837088</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002646721753739156</v>
+        <v>0.0001046692406349878</v>
       </c>
       <c r="K17" t="n">
-        <v>0.005456748720849418</v>
+        <v>0.0002958161691593483</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007165761898991595</v>
+        <v>0.002133789140266588</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06146579006009788</v>
+        <v>0.01871007839716602</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005713935799022</v>
+        <v>1.000529443516501</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0640825159946824</v>
+        <v>0.01950660516973502</v>
       </c>
       <c r="P17" t="n">
-        <v>93.15709807249841</v>
+        <v>97.91477179433522</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.1310068920946</v>
+        <v>147.8886806139315</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9958609564643737</v>
+        <v>0.999617489411548</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9952648587323257</v>
+        <v>0.9986268570551321</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9949264251837705</v>
+        <v>0.999349692661708</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9967043914796373</v>
+        <v>0.9993015894888044</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9957683476595045</v>
+        <v>0.9993810395143308</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003863615457493903</v>
+        <v>0.0003570568440455577</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004420046524694339</v>
+        <v>0.001281768665025053</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008477376343288049</v>
+        <v>0.0004950641414587467</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002713500374188021</v>
+        <v>0.000107862246203673</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005595438358738034</v>
+        <v>0.0003014603517307232</v>
       </c>
       <c r="L18" t="n">
-        <v>0.007248327032887547</v>
+        <v>0.002155549426148495</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06215798788163838</v>
+        <v>0.01889594782077781</v>
       </c>
       <c r="N18" t="n">
-        <v>1.005843355579708</v>
+        <v>1.000540014948403</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0648041821105329</v>
+        <v>0.01970038743951272</v>
       </c>
       <c r="P18" t="n">
-        <v>93.11230377373271</v>
+        <v>97.87523112368308</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.086212593329</v>
+        <v>147.8491399432793</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9957670803825891</v>
+        <v>0.999609862412316</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9951733943124959</v>
+        <v>0.9986187243907793</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9947971132918781</v>
+        <v>0.9993388973714873</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9966207738200956</v>
+        <v>0.9992804693617032</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9956606120050534</v>
+        <v>0.9993692482789442</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003951244659156082</v>
+        <v>0.0003641763130421654</v>
       </c>
       <c r="H19" t="n">
-        <v>0.004505424545781509</v>
+        <v>0.001289360150215706</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008693442058871435</v>
+        <v>0.0005032823496354739</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002782348524401568</v>
+        <v>0.0001111240303731869</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005737895291636501</v>
+        <v>0.0003072031900043303</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007331834857220321</v>
+        <v>0.002177480154827229</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06285892664654784</v>
+        <v>0.01908340412615541</v>
       </c>
       <c r="N19" t="n">
-        <v>1.005975886518698</v>
+        <v>1.00055078247673</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06553496128980783</v>
+        <v>0.01989582414789829</v>
       </c>
       <c r="P19" t="n">
-        <v>93.06744929223998</v>
+        <v>97.83574486222099</v>
       </c>
       <c r="Q19" t="n">
-        <v>143.0413581118362</v>
+        <v>147.8096536818172</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9956711509357288</v>
+        <v>0.9996020815694726</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9950798456774923</v>
+        <v>0.9986104328473144</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9946649035772132</v>
+        <v>0.99932797077903</v>
       </c>
       <c r="E20" t="n">
-        <v>0.996534807760444</v>
+        <v>0.9992589078119646</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9955503142889918</v>
+        <v>0.9993572902755858</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00404079058698411</v>
+        <v>0.0003714393882969137</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004592748090246776</v>
+        <v>0.001297099942083475</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008914349712360275</v>
+        <v>0.0005116005152095262</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002853130273383876</v>
+        <v>0.0001144539876821978</v>
       </c>
       <c r="K20" t="n">
-        <v>0.005883739992872075</v>
+        <v>0.000313027251445862</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007416105972280843</v>
+        <v>0.002199620934627138</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06356721314470307</v>
+        <v>0.01927276286101486</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00611131632603</v>
+        <v>1.000561767196039</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0662734010105447</v>
+        <v>0.02009324427612733</v>
       </c>
       <c r="P20" t="n">
-        <v>93.02262983261258</v>
+        <v>97.79624972219243</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.9965386522088</v>
+        <v>147.7701585417887</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.995572993507172</v>
+        <v>0.9995941621807106</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9949839911515049</v>
+        <v>0.998601967535617</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9945294148618298</v>
+        <v>0.9993169023109583</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9964462677299909</v>
+        <v>0.99923689554324</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9954371434455059</v>
+        <v>0.9993451499315055</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004132416237928717</v>
+        <v>0.0003788317900852387</v>
       </c>
       <c r="H21" t="n">
-        <v>0.004682224082728578</v>
+        <v>0.001305001938968726</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009140736209490463</v>
+        <v>0.0005200266874523533</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00292603134894568</v>
+        <v>0.0001178535538551248</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006033383779218071</v>
+        <v>0.000318940120653739</v>
       </c>
       <c r="L21" t="n">
-        <v>0.007501296397779165</v>
+        <v>0.002221936035256437</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06428387230035787</v>
+        <v>0.01946360167300078</v>
       </c>
       <c r="N21" t="n">
-        <v>1.006249891519287</v>
+        <v>1.000572947509585</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06702056983014471</v>
+        <v>0.02029220749143028</v>
       </c>
       <c r="P21" t="n">
-        <v>92.97778599515655</v>
+        <v>97.75683655406843</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.9516948147528</v>
+        <v>147.7307453736647</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9954725755301268</v>
+        <v>0.9995860908442064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9948858297245886</v>
+        <v>0.9985933386138615</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9943906140753533</v>
+        <v>0.9993056925449726</v>
       </c>
       <c r="E22" t="n">
-        <v>0.996355134172857</v>
+        <v>0.9992144246925515</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9953210724914763</v>
+        <v>0.9993328264515321</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004226152011660677</v>
+        <v>0.0003863660284212358</v>
       </c>
       <c r="H22" t="n">
-        <v>0.004773853465966336</v>
+        <v>0.00131305665866169</v>
       </c>
       <c r="I22" t="n">
-        <v>0.009372656807160706</v>
+        <v>0.0005285604265736162</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003001067852782822</v>
+        <v>0.0001213239432471965</v>
       </c>
       <c r="K22" t="n">
-        <v>0.006186862329971765</v>
+        <v>0.0003249421849104063</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00758737554362507</v>
+        <v>0.002244440575957282</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06500886102417637</v>
+        <v>0.01965619567518689</v>
       </c>
       <c r="N22" t="n">
-        <v>1.006391658075115</v>
+        <v>1.000584342337591</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0677764228248697</v>
+        <v>0.02049300061901401</v>
       </c>
       <c r="P22" t="n">
-        <v>92.93292677971532</v>
+        <v>97.71745075531089</v>
       </c>
       <c r="Q22" t="n">
-        <v>142.9068355993116</v>
+        <v>147.6913595749071</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9953698757470448</v>
+        <v>0.9995778727696387</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9947853116960812</v>
+        <v>0.9985845289398191</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9942484755333789</v>
+        <v>0.999294338519805</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9962613686881227</v>
+        <v>0.999191504832567</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9952020732431001</v>
+        <v>0.9993203190390759</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004322017751168184</v>
+        <v>0.0003940372402982996</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004867682633346468</v>
+        <v>0.001321280102680229</v>
       </c>
       <c r="I23" t="n">
-        <v>0.009610154421140793</v>
+        <v>0.0005372039869192706</v>
       </c>
       <c r="J23" t="n">
-        <v>0.003078271403004442</v>
+        <v>0.0001248636774593472</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006344212912072619</v>
+        <v>0.0003310338321893089</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007674355573420194</v>
+        <v>0.002267131662848653</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06574205466189952</v>
+        <v>0.01985037128867618</v>
       </c>
       <c r="N23" t="n">
-        <v>1.006536646004172</v>
+        <v>1.000595944325216</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0685408300336708</v>
+        <v>0.02069544269036847</v>
       </c>
       <c r="P23" t="n">
-        <v>92.88806582748127</v>
+        <v>97.67813026921866</v>
       </c>
       <c r="Q23" t="n">
-        <v>142.8619746470775</v>
+        <v>147.6520390888149</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9952648195733609</v>
+        <v>0.9995694958690691</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9946823985122071</v>
+        <v>0.9985755435017293</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9941029274215155</v>
+        <v>0.999282845758614</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9961648775028593</v>
+        <v>0.9991681518779688</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9950800711310056</v>
+        <v>0.9993076345338952</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004420083077869093</v>
+        <v>0.000401856709276688</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004963747573126264</v>
+        <v>0.001329667614721927</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009853349045249607</v>
+        <v>0.0005459531638344475</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003157719209289738</v>
+        <v>0.0001284702986342562</v>
       </c>
       <c r="K24" t="n">
-        <v>0.006505534127269673</v>
+        <v>0.0003372117312343518</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007762231618129889</v>
+        <v>0.002290013029337614</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06648370535604264</v>
+        <v>0.02004636399142468</v>
       </c>
       <c r="N24" t="n">
-        <v>1.006684960602314</v>
+        <v>1.000607770537785</v>
       </c>
       <c r="O24" t="n">
-        <v>0.06931405433329217</v>
+        <v>0.0208997792082338</v>
       </c>
       <c r="P24" t="n">
-        <v>92.84319357434237</v>
+        <v>97.63882995494416</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.8171023939386</v>
+        <v>147.6127387745404</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9951573739778583</v>
+        <v>0.999560957519998</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9945770067515251</v>
+        <v>0.9985663755617538</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9939538555683974</v>
+        <v>0.9992711780506935</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9960656400063789</v>
+        <v>0.9991443184828516</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9949549876024496</v>
+        <v>0.9992947371296336</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004520378824954208</v>
+        <v>0.0004098268833443452</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005062126155559393</v>
+        <v>0.001338225484263022</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0101024314470762</v>
+        <v>0.0005548355237038853</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003239428241830853</v>
+        <v>0.000132151118855016</v>
       </c>
       <c r="K25" t="n">
-        <v>0.006670929844453529</v>
+        <v>0.0003434933212794507</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007851003795589766</v>
+        <v>0.002313101784853751</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06723376253753918</v>
+        <v>0.0202441814688652</v>
       </c>
       <c r="N25" t="n">
-        <v>1.006836648501847</v>
+        <v>1.00061982467765</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07009604300183744</v>
+        <v>0.02110601818522759</v>
       </c>
       <c r="P25" t="n">
-        <v>92.79831895563871</v>
+        <v>97.59955144635606</v>
       </c>
       <c r="Q25" t="n">
-        <v>142.7722277752349</v>
+        <v>147.5734602659523</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9950474978004881</v>
+        <v>0.9995522621289143</v>
       </c>
       <c r="C26" t="n">
-        <v>0.994469134254116</v>
+        <v>0.998557023150678</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9938012545288468</v>
+        <v>0.9992594041307342</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9959635747273108</v>
+        <v>0.9991199937667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9948267938514592</v>
+        <v>0.9992816765088031</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004622943413522501</v>
+        <v>0.0004179436492373326</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005162820396835327</v>
+        <v>0.001346955549478829</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01035741072490402</v>
+        <v>0.0005637987403755818</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003323465581591209</v>
+        <v>0.0001359078185041664</v>
       </c>
       <c r="K26" t="n">
-        <v>0.006840438153247613</v>
+        <v>0.0003498544048066616</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007940647945988559</v>
+        <v>0.002336376782699422</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06799223053792618</v>
+        <v>0.02044367015086412</v>
       </c>
       <c r="N26" t="n">
-        <v>1.006991767811076</v>
+        <v>1.000632100523886</v>
       </c>
       <c r="O26" t="n">
-        <v>0.07088680055524611</v>
+        <v>0.0213139995134177</v>
       </c>
       <c r="P26" t="n">
-        <v>92.75344734851615</v>
+        <v>97.56032788992853</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.7273561681124</v>
+        <v>147.5342367095247</v>
       </c>
     </row>
   </sheetData>
